--- a/Paper_resultados/Cox_model/Output/Assumptions/Non_CCI/Schoenfeld_Non_CCI.xlsx
+++ b/Paper_resultados/Cox_model/Output/Assumptions/Non_CCI/Schoenfeld_Non_CCI.xlsx
@@ -398,7 +398,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.576159088593149</v>
+        <v>2.576159088593148</v>
       </c>
       <c r="B4">
         <v>2</v>
